--- a/Day12/seoul_sgg_stat.xlsx
+++ b/Day12/seoul_sgg_stat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,14 +446,14 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>위도</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>경도</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>위도</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>스타벅스_매장수</t>
@@ -466,10 +466,15 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>계_y</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>사업체수</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>종사자수</t>
         </is>
@@ -487,21 +492,24 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>37.514575</v>
+      </c>
+      <c r="D2" t="n">
         <v>127.049555555555</v>
-      </c>
-      <c r="D2" t="n">
-        <v>37.514575</v>
       </c>
       <c r="E2" t="n">
         <v>88</v>
       </c>
       <c r="F2" t="n">
-        <v>534103</v>
+        <v>537817</v>
       </c>
       <c r="G2" t="n">
+        <v>537817</v>
+      </c>
+      <c r="H2" t="n">
         <v>110007</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>801419</v>
       </c>
     </row>
@@ -517,21 +525,24 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>37.5273666666666</v>
+      </c>
+      <c r="D3" t="n">
         <v>127.125863888888</v>
-      </c>
-      <c r="D3" t="n">
-        <v>37.5273666666666</v>
       </c>
       <c r="E3" t="n">
         <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>464037</v>
+        <v>464027</v>
       </c>
       <c r="G3" t="n">
+        <v>464027</v>
+      </c>
+      <c r="H3" t="n">
         <v>41660</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>157465</v>
       </c>
     </row>
@@ -547,21 +558,24 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>37.6369555555555</v>
+      </c>
+      <c r="D4" t="n">
         <v>127.027719444444</v>
-      </c>
-      <c r="D4" t="n">
-        <v>37.6369555555555</v>
       </c>
       <c r="E4" t="n">
         <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>297702</v>
+        <v>296934</v>
       </c>
       <c r="G4" t="n">
+        <v>296934</v>
+      </c>
+      <c r="H4" t="n">
         <v>26385</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>80222</v>
       </c>
     </row>
@@ -577,21 +591,24 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>37.5481555555555</v>
+      </c>
+      <c r="D5" t="n">
         <v>126.851675</v>
-      </c>
-      <c r="D5" t="n">
-        <v>37.5481555555555</v>
       </c>
       <c r="E5" t="n">
         <v>25</v>
       </c>
       <c r="F5" t="n">
-        <v>574638</v>
+        <v>573711</v>
       </c>
       <c r="G5" t="n">
+        <v>573711</v>
+      </c>
+      <c r="H5" t="n">
         <v>58806</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>290473</v>
       </c>
     </row>
@@ -607,21 +624,24 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>37.4753861111111</v>
+      </c>
+      <c r="D6" t="n">
         <v>126.953844444444</v>
-      </c>
-      <c r="D6" t="n">
-        <v>37.4753861111111</v>
       </c>
       <c r="E6" t="n">
         <v>11</v>
       </c>
       <c r="F6" t="n">
-        <v>501226</v>
+        <v>502628</v>
       </c>
       <c r="G6" t="n">
+        <v>502628</v>
+      </c>
+      <c r="H6" t="n">
         <v>37915</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>128417</v>
       </c>
     </row>
@@ -637,21 +657,24 @@
         </is>
       </c>
       <c r="C7" t="n">
+        <v>37.5357388888888</v>
+      </c>
+      <c r="D7" t="n">
         <v>127.084533333333</v>
-      </c>
-      <c r="D7" t="n">
-        <v>37.5357388888888</v>
       </c>
       <c r="E7" t="n">
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>351252</v>
+        <v>350925</v>
       </c>
       <c r="G7" t="n">
+        <v>350925</v>
+      </c>
+      <c r="H7" t="n">
         <v>33706</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>129707</v>
       </c>
     </row>
@@ -667,21 +690,24 @@
         </is>
       </c>
       <c r="C8" t="n">
+        <v>37.49265</v>
+      </c>
+      <c r="D8" t="n">
         <v>126.889597222222</v>
-      </c>
-      <c r="D8" t="n">
-        <v>37.49265</v>
       </c>
       <c r="E8" t="n">
         <v>14</v>
       </c>
       <c r="F8" t="n">
-        <v>418418</v>
+        <v>417983</v>
       </c>
       <c r="G8" t="n">
+        <v>417983</v>
+      </c>
+      <c r="H8" t="n">
         <v>52791</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>240689</v>
       </c>
     </row>
@@ -697,21 +723,24 @@
         </is>
       </c>
       <c r="C9" t="n">
+        <v>37.4491083333333</v>
+      </c>
+      <c r="D9" t="n">
         <v>126.904197222222</v>
-      </c>
-      <c r="D9" t="n">
-        <v>37.4491083333333</v>
       </c>
       <c r="E9" t="n">
         <v>12</v>
       </c>
       <c r="F9" t="n">
-        <v>242818</v>
+        <v>242467</v>
       </c>
       <c r="G9" t="n">
+        <v>242467</v>
+      </c>
+      <c r="H9" t="n">
         <v>47964</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>255449</v>
       </c>
     </row>
@@ -727,21 +756,24 @@
         </is>
       </c>
       <c r="C10" t="n">
+        <v>37.6514611111111</v>
+      </c>
+      <c r="D10" t="n">
         <v>127.058388888888</v>
-      </c>
-      <c r="D10" t="n">
-        <v>37.6514611111111</v>
       </c>
       <c r="E10" t="n">
         <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>508014</v>
+        <v>506989</v>
       </c>
       <c r="G10" t="n">
+        <v>506989</v>
+      </c>
+      <c r="H10" t="n">
         <v>37909</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>133398</v>
       </c>
     </row>
@@ -757,21 +789,24 @@
         </is>
       </c>
       <c r="C11" t="n">
+        <v>37.6658333333333</v>
+      </c>
+      <c r="D11" t="n">
         <v>127.049522222222</v>
-      </c>
-      <c r="D11" t="n">
-        <v>37.6658333333333</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>313989</v>
+        <v>312858</v>
       </c>
       <c r="G11" t="n">
+        <v>312858</v>
+      </c>
+      <c r="H11" t="n">
         <v>25391</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>79097</v>
       </c>
     </row>
@@ -787,21 +822,24 @@
         </is>
       </c>
       <c r="C12" t="n">
+        <v>37.571625</v>
+      </c>
+      <c r="D12" t="n">
         <v>127.042141666666</v>
-      </c>
-      <c r="D12" t="n">
-        <v>37.571625</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>353601</v>
+        <v>354884</v>
       </c>
       <c r="G12" t="n">
+        <v>354884</v>
+      </c>
+      <c r="H12" t="n">
         <v>42813</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>146383</v>
       </c>
     </row>
@@ -817,21 +855,24 @@
         </is>
       </c>
       <c r="C13" t="n">
+        <v>37.5096555555555</v>
+      </c>
+      <c r="D13" t="n">
         <v>126.941575</v>
-      </c>
-      <c r="D13" t="n">
-        <v>37.5096555555555</v>
       </c>
       <c r="E13" t="n">
         <v>11</v>
       </c>
       <c r="F13" t="n">
-        <v>390432</v>
+        <v>390377</v>
       </c>
       <c r="G13" t="n">
+        <v>390377</v>
+      </c>
+      <c r="H13" t="n">
         <v>27915</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>109281</v>
       </c>
     </row>
@@ -847,21 +888,24 @@
         </is>
       </c>
       <c r="C14" t="n">
+        <v>37.5607055555555</v>
+      </c>
+      <c r="D14" t="n">
         <v>126.910530555555</v>
-      </c>
-      <c r="D14" t="n">
-        <v>37.5607055555555</v>
       </c>
       <c r="E14" t="n">
         <v>36</v>
       </c>
       <c r="F14" t="n">
-        <v>375585</v>
+        <v>376542</v>
       </c>
       <c r="G14" t="n">
+        <v>376542</v>
+      </c>
+      <c r="H14" t="n">
         <v>56782</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>279788</v>
       </c>
     </row>
@@ -877,21 +921,24 @@
         </is>
       </c>
       <c r="C15" t="n">
+        <v>37.5763666666666</v>
+      </c>
+      <c r="D15" t="n">
         <v>126.938897222222</v>
-      </c>
-      <c r="D15" t="n">
-        <v>37.5763666666666</v>
       </c>
       <c r="E15" t="n">
         <v>22</v>
       </c>
       <c r="F15" t="n">
-        <v>319554</v>
+        <v>321966</v>
       </c>
       <c r="G15" t="n">
+        <v>321966</v>
+      </c>
+      <c r="H15" t="n">
         <v>28522</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>118256</v>
       </c>
     </row>
@@ -907,21 +954,24 @@
         </is>
       </c>
       <c r="C16" t="n">
+        <v>37.4807861111111</v>
+      </c>
+      <c r="D16" t="n">
         <v>127.034811111111</v>
-      </c>
-      <c r="D16" t="n">
-        <v>37.4807861111111</v>
       </c>
       <c r="E16" t="n">
         <v>49</v>
       </c>
       <c r="F16" t="n">
-        <v>408451</v>
+        <v>408979</v>
       </c>
       <c r="G16" t="n">
+        <v>408979</v>
+      </c>
+      <c r="H16" t="n">
         <v>71958</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>487976</v>
       </c>
     </row>
@@ -937,21 +987,24 @@
         </is>
       </c>
       <c r="C17" t="n">
+        <v>37.5606111111111</v>
+      </c>
+      <c r="D17" t="n">
         <v>127.039</v>
-      </c>
-      <c r="D17" t="n">
-        <v>37.5606111111111</v>
       </c>
       <c r="E17" t="n">
         <v>14</v>
       </c>
       <c r="F17" t="n">
-        <v>288234</v>
+        <v>287240</v>
       </c>
       <c r="G17" t="n">
+        <v>287240</v>
+      </c>
+      <c r="H17" t="n">
         <v>41665</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>203221</v>
       </c>
     </row>
@@ -967,21 +1020,24 @@
         </is>
       </c>
       <c r="C18" t="n">
+        <v>37.5863833333333</v>
+      </c>
+      <c r="D18" t="n">
         <v>127.020333333333</v>
-      </c>
-      <c r="D18" t="n">
-        <v>37.5863833333333</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
       </c>
       <c r="F18" t="n">
-        <v>441984</v>
+        <v>441855</v>
       </c>
       <c r="G18" t="n">
+        <v>441855</v>
+      </c>
+      <c r="H18" t="n">
         <v>34712</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>124004</v>
       </c>
     </row>
@@ -997,21 +1053,24 @@
         </is>
       </c>
       <c r="C19" t="n">
+        <v>37.5117555555555</v>
+      </c>
+      <c r="D19" t="n">
         <v>127.107930555555</v>
-      </c>
-      <c r="D19" t="n">
-        <v>37.5117555555555</v>
       </c>
       <c r="E19" t="n">
         <v>36</v>
       </c>
       <c r="F19" t="n">
-        <v>664514</v>
+        <v>663704</v>
       </c>
       <c r="G19" t="n">
+        <v>663704</v>
+      </c>
+      <c r="H19" t="n">
         <v>74531</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>400781</v>
       </c>
     </row>
@@ -1027,21 +1086,24 @@
         </is>
       </c>
       <c r="C20" t="n">
+        <v>37.5142305555555</v>
+      </c>
+      <c r="D20" t="n">
         <v>126.868708333333</v>
-      </c>
-      <c r="D20" t="n">
-        <v>37.5142305555555</v>
       </c>
       <c r="E20" t="n">
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>444010</v>
+        <v>442345</v>
       </c>
       <c r="G20" t="n">
+        <v>442345</v>
+      </c>
+      <c r="H20" t="n">
         <v>37929</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>133776</v>
       </c>
     </row>
@@ -1057,21 +1119,24 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>37.5236111111111</v>
+      </c>
+      <c r="D21" t="n">
         <v>126.898341666666</v>
-      </c>
-      <c r="D21" t="n">
-        <v>37.5236111111111</v>
       </c>
       <c r="E21" t="n">
         <v>41</v>
       </c>
       <c r="F21" t="n">
-        <v>398085</v>
+        <v>398999</v>
       </c>
       <c r="G21" t="n">
+        <v>398999</v>
+      </c>
+      <c r="H21" t="n">
         <v>74562</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>435017</v>
       </c>
     </row>
@@ -1087,21 +1152,24 @@
         </is>
       </c>
       <c r="C22" t="n">
+        <v>37.5360944444444</v>
+      </c>
+      <c r="D22" t="n">
         <v>126.967522222222</v>
-      </c>
-      <c r="D22" t="n">
-        <v>37.5360944444444</v>
       </c>
       <c r="E22" t="n">
         <v>25</v>
       </c>
       <c r="F22" t="n">
-        <v>233284</v>
+        <v>232482</v>
       </c>
       <c r="G22" t="n">
+        <v>232482</v>
+      </c>
+      <c r="H22" t="n">
         <v>29680</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>152605</v>
       </c>
     </row>
@@ -1117,21 +1185,24 @@
         </is>
       </c>
       <c r="C23" t="n">
+        <v>37.5999694444444</v>
+      </c>
+      <c r="D23" t="n">
         <v>126.931241666666</v>
-      </c>
-      <c r="D23" t="n">
-        <v>37.5999694444444</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
       </c>
       <c r="F23" t="n">
-        <v>470602</v>
+        <v>468766</v>
       </c>
       <c r="G23" t="n">
+        <v>468766</v>
+      </c>
+      <c r="H23" t="n">
         <v>36509</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>109031</v>
       </c>
     </row>
@@ -1147,21 +1218,24 @@
         </is>
       </c>
       <c r="C24" t="n">
+        <v>37.5703777777777</v>
+      </c>
+      <c r="D24" t="n">
         <v>126.981641666666</v>
-      </c>
-      <c r="D24" t="n">
-        <v>37.5703777777777</v>
       </c>
       <c r="E24" t="n">
         <v>40</v>
       </c>
       <c r="F24" t="n">
-        <v>152211</v>
+        <v>152212</v>
       </c>
       <c r="G24" t="n">
+        <v>152212</v>
+      </c>
+      <c r="H24" t="n">
         <v>48361</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>275063</v>
       </c>
     </row>
@@ -1177,21 +1251,24 @@
         </is>
       </c>
       <c r="C25" t="n">
+        <v>37.5610027777777</v>
+      </c>
+      <c r="D25" t="n">
         <v>126.999641666666</v>
-      </c>
-      <c r="D25" t="n">
-        <v>37.5610027777777</v>
       </c>
       <c r="E25" t="n">
         <v>53</v>
       </c>
       <c r="F25" t="n">
-        <v>130785</v>
+        <v>131390</v>
       </c>
       <c r="G25" t="n">
+        <v>131390</v>
+      </c>
+      <c r="H25" t="n">
         <v>70308</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>386564</v>
       </c>
     </row>
@@ -1207,21 +1284,24 @@
         </is>
       </c>
       <c r="C26" t="n">
+        <v>37.6038055555555</v>
+      </c>
+      <c r="D26" t="n">
         <v>127.094777777777</v>
-      </c>
-      <c r="D26" t="n">
-        <v>37.6038055555555</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
       </c>
       <c r="F26" t="n">
-        <v>390140</v>
+        <v>389928</v>
       </c>
       <c r="G26" t="n">
+        <v>389928</v>
+      </c>
+      <c r="H26" t="n">
         <v>39310</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>113144</v>
       </c>
     </row>
